--- a/lista_de_resultados_23a_16-07-2024.xlsx
+++ b/lista_de_resultados_23a_16-07-2024.xlsx
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -600,16 +600,16 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>11</v>
@@ -618,58 +618,58 @@
         <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,31 +677,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
         <v>14</v>
@@ -710,58 +710,58 @@
         <v>14</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -769,28 +769,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>21</v>
@@ -808,52 +808,52 @@
         <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>18</v>
@@ -873,10 +873,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
         <v>18</v>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>12</v>
@@ -894,58 +894,58 @@
         <v>12</v>
       </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="V5" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -953,13 +953,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -986,58 +986,58 @@
         <v>18</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1045,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>11</v>
@@ -1060,16 +1060,16 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="n">
         <v>13</v>
@@ -1078,58 +1078,58 @@
         <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1137,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
@@ -1152,58 +1152,58 @@
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1229,37 +1229,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" t="n">
         <v>22</v>
@@ -1268,19 +1268,19 @@
         <v>22</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1289,31 +1289,31 @@
         <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>22</v>
@@ -1339,16 +1339,16 @@
         <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>15</v>
@@ -1357,55 +1357,55 @@
         <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
@@ -1422,19 +1422,19 @@
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>19</v>
@@ -1452,52 +1452,52 @@
         <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="U11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1505,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
         <v>15</v>
@@ -1514,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -1523,16 +1523,16 @@
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="n">
         <v>16</v>
@@ -1544,52 +1544,52 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P12" t="n">
         <v>14</v>
       </c>
       <c r="Q12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
         <v>14</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1600,10 +1600,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
@@ -1615,13 +1615,13 @@
         <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
         <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -1630,58 +1630,58 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y13" t="n">
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1689,34 +1689,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>8</v>
@@ -1725,55 +1725,55 @@
         <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1781,40 +1781,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
@@ -1826,46 +1826,46 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1873,16 +1873,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>8</v>
@@ -1891,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" t="n">
         <v>23</v>
@@ -1912,19 +1912,19 @@
         <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="n">
         <v>20</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T16" t="n">
         <v>23</v>
@@ -1933,31 +1933,31 @@
         <v>23</v>
       </c>
       <c r="V16" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1965,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
         <v>13</v>
@@ -1977,16 +1977,16 @@
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
         <v>13</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
         <v>20</v>
@@ -1998,58 +1998,58 @@
         <v>20</v>
       </c>
       <c r="M17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q17" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="W17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -2057,25 +2057,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
         <v>19</v>
@@ -2090,10 +2090,10 @@
         <v>17</v>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
         <v>16</v>
@@ -2102,46 +2102,46 @@
         <v>16</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -2149,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
         <v>23</v>
@@ -2173,7 +2173,7 @@
         <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>7</v>
@@ -2185,16 +2185,16 @@
         <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R19" t="n">
         <v>23</v>
@@ -2203,37 +2203,37 @@
         <v>23</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2241,16 +2241,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>14</v>
@@ -2259,13 +2259,13 @@
         <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K20" t="n">
         <v>10</v>
@@ -2277,55 +2277,55 @@
         <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2333,31 +2333,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -2369,55 +2369,55 @@
         <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
         <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R21" t="n">
         <v>16</v>
       </c>
       <c r="S21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V21" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="X21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB21" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2425,10 +2425,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -2440,76 +2440,76 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -2517,10 +2517,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -2532,16 +2532,16 @@
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -2550,58 +2550,58 @@
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -2627,10 +2627,10 @@
         <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -2654,34 +2654,34 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S24" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>1</v>
@@ -2690,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
